--- a/data/excel_files_raw/round_raw.xlsx
+++ b/data/excel_files_raw/round_raw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D630835-FF22-EE47-9D2B-7ECB425DAA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B108B7-8738-1B40-984D-EC71D652CBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{5BF2739D-D01F-9B43-A8DC-81506F5F0A65}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
